--- a/biology/Zoologie/Cophyla_grandis/Cophyla_grandis.xlsx
+++ b/biology/Zoologie/Cophyla_grandis/Cophyla_grandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla grandis est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla grandis est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle est présente du niveau de la mer jusqu'à une altitude de 1 400 m y compris dans l'île de Nosy Mangabe[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle est présente du niveau de la mer jusqu'à une altitude de 1 400 m y compris dans l'île de Nosy Mangabe,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cophyla grandis mesure de 45 à 88 mm pour les mâles et de 43 à 61 mm pour les femelles ; la taille maximale est de 105 mm. Son dos est brun foncé. Certains individus une marque claire en forme de "X" ou une marque sombre en forme de "W" entre les yeux. Son ventre est blanchâtre, parfois marqué de taches sombres. La peau de son dos est granuleuse[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cophyla grandis mesure de 45 à 88 mm pour les mâles et de 43 à 61 mm pour les femelles ; la taille maximale est de 105 mm. Son dos est brun foncé. Certains individus une marque claire en forme de "X" ou une marque sombre en forme de "W" entre les yeux. Son ventre est blanchâtre, parfois marqué de taches sombres. La peau de son dos est granuleuse.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces Platyhyla verrucosa[4] et Platyhyla voeltzkowi[5] ont été placées en synonymie avec Cophyla barbouri par Noble et Parker en 1926[6] et Cophyla tuberculata[7] par Blommers-Schlösser et Blanc en 1991[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces Platyhyla verrucosa et Platyhyla voeltzkowi ont été placées en synonymie avec Cophyla barbouri par Noble et Parker en 1926 et Cophyla tuberculata par Blommers-Schlösser et Blanc en 1991.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1889 : Descriptions of new Reptiles and Batrachians from Madagascar. Annals and Magazine of Natural History, sér. 6, vol. 4, p. 244-248 (texte intégral).</t>
         </is>
